--- a/biology/Histoire de la zoologie et de la botanique/Médaille_linnéenne/Médaille_linnéenne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_linnéenne/Médaille_linnéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_linn%C3%A9enne</t>
+          <t>Médaille_linnéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille linnéenne (en anglais Linnean Medal) est une médaille attribuée par la Linnean Society of London depuis 1888.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_linn%C3%A9enne</t>
+          <t>Médaille_linnéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est décernée tous les ans et récompense en alternance un botaniste ou un zoologiste. Depuis 1958, elle récompense la même année deux spécialistes. Cette médaille était en or jusqu'en 1976 d'où son nom ancien de médaille d'or de la Société linnéenne.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_linn%C3%A9enne</t>
+          <t>Médaille_linnéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des lauréats
